--- a/src/main/resources/static/excel/外辅工艺.xlsx
+++ b/src/main/resources/static/excel/外辅工艺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="13405"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>编码</t>
   </si>
@@ -53,39 +53,6 @@
   </si>
   <si>
     <t>修改</t>
-  </si>
-  <si>
-    <t>GX0022</t>
-  </si>
-  <si>
-    <t>刻字膜</t>
-  </si>
-  <si>
-    <t>外辅工艺</t>
-  </si>
-  <si>
-    <t>印花</t>
-  </si>
-  <si>
-    <t>起步价4.5元</t>
-  </si>
-  <si>
-    <t>面料要耐高温</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>GX0024</t>
-  </si>
-  <si>
-    <t>压花</t>
-  </si>
-  <si>
-    <t>5*5cm  （加涂胶1~2元），起步2.5元，每增加标准面积/1元</t>
   </si>
 </sst>
 </file>
@@ -573,7 +540,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,12 +1029,12 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M59" sqref="A4:M59"/>
+      <selection activeCell="A2" sqref="$A2:$XFD97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:13">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,86 +1076,34 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5">
-        <v>43273.4118055556</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5">
-        <v>44725.9638888889</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5">
-        <v>43273.4131944444</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5">
-        <v>44725.9638888889</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
